--- a/backtest/bt_t28/backtest_report/summary.xlsx
+++ b/backtest/bt_t28/backtest_report/summary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="51600" yWindow="8320" windowWidth="28400" windowHeight="25040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="概览" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="概览" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/backtest/bt_t28/backtest_report/summary.xlsx
+++ b/backtest/bt_t28/backtest_report/summary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="51600" yWindow="8320" windowWidth="28400" windowHeight="25040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="概览" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="概览" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/backtest/bt_t28/backtest_report/summary.xlsx
+++ b/backtest/bt_t28/backtest_report/summary.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C3" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>97859214.92784803</v>
+        <v>97934359.14991522</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>97859214.92784803</v>
+        <v>97934359.14991522</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>8.785921492784803</v>
+        <v>8.793435914991521</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2975049780529191</v>
+        <v>0.288990544019883</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>9.785921492784803</v>
+        <v>9.793435914991521</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>220.6111976452268</v>
+        <v>231.3249969661737</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7357447312306113</v>
+        <v>0.7327793886994086</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2345360401917186</v>
+        <v>0.2316659996582086</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.079117659065946</v>
+        <v>1.061141920632857</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.165562362005752</v>
+        <v>0.1633179683266395</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.528680671090517</v>
+        <v>1.505226316133052</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02357494330770808</v>
+        <v>0.0232965124382515</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.5559424182370706</v>
+        <v>0.8934350588407567</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.05177351988904277</v>
+        <v>0.07360964323440289</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1933911580235037</v>
+        <v>0.2034181666852455</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4948580053875277</v>
+        <v>0.4780398828663691</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.201249363551227</v>
+        <v>1.260997871622607</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.3309956531101858</v>
+        <v>0.4147413190449479</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2366781458165549</v>
+        <v>0.2408847917506707</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1852020064293057</v>
+        <v>0.1947930911489408</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.5108614453443477</v>
+        <v>0.502271101478421</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.079993816287056</v>
+        <v>1.061892499242775</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.582859886514865</v>
+        <v>1.559891899115126</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.201052024006329</v>
+        <v>1.2670031496542</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03087939172209045</v>
+        <v>0.03098251724421055</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1337,19 +1337,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="13" t="n">
-        <v>-0.02216357199156488</v>
+        <v>-0.02141265230230083</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>0.1111204194336357</v>
+        <v>0.3521287472546212</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>-5.553064910295422</v>
+        <v>-1.358022736016941</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>-4.21782734881834</v>
+        <v>-1.049647811498657</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
@@ -1816,13 +1816,13 @@
         <v>-0.02216357199156482</v>
       </c>
       <c r="C11" s="15" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v/>
+        <v>0.0007679399823481425</v>
       </c>
       <c r="F11" s="15" t="n">
         <v/>
@@ -2313,13 +2313,13 @@
         <v>0.1111204194336357</v>
       </c>
       <c r="C11" s="15" t="n">
-        <v/>
+        <v>0.004280811429914433</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v/>
+        <v>0.07009750317718355</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v/>
+        <v>0.1323440487833731</v>
       </c>
       <c r="F11" s="15" t="n">
         <v/>

--- a/backtest/bt_t28/backtest_report/summary.xlsx
+++ b/backtest/bt_t28/backtest_report/summary.xlsx
@@ -649,7 +649,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>./00_bt_t28.py</t>
+          <t>./backtest/bt_t28/00_bt_t28.py</t>
         </is>
       </c>
       <c r="C4" s="13" t="n"/>

--- a/backtest/bt_t28/backtest_report/summary.xlsx
+++ b/backtest/bt_t28/backtest_report/summary.xlsx
@@ -587,7 +587,7 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="20.83203125" customWidth="1" min="1" max="1"/>
     <col width="33.1640625" customWidth="1" min="2" max="2"/>
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2013-01-04</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="C3" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>97934359.14991522</v>
+        <v>22827215.51305347</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>97934359.14991522</v>
+        <v>776.2224534675479</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>8.793435914991521</v>
+        <v>1.282721551305347</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.288990544019883</v>
+        <v>0.1865462063494741</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>9.793435914991521</v>
+        <v>2.282721551305347</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>231.3249969661737</v>
+        <v>134.5325825712408</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7327793886994086</v>
+        <v>0.7097436179809689</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2316659996582086</v>
+        <v>0.203971044059806</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.061141920632857</v>
+        <v>0.7910971475348714</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1633179683266395</v>
+        <v>0.1443452251380312</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.505226316133052</v>
+        <v>1.117881876460545</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2627452117573835</v>
+        <v>0.2627333989365545</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.0232965124382515</v>
+        <v>0.02070452209467021</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.8934350588407567</v>
+        <v>0.5669187478757503</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.07360964323440289</v>
+        <v>0.09754115946305419</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2034181666852455</v>
+        <v>0.1601882427459551</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4780398828663691</v>
+        <v>0.3965147850673252</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.260997871622607</v>
+        <v>1.104532745189871</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4147413190449479</v>
+        <v>0.4978310831580897</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.451693549785752</v>
+        <v>0.2561040773391506</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2408847917506707</v>
+        <v>0.2486460943249201</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1947930911489408</v>
+        <v>0.1567938103595856</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.502271101478421</v>
+        <v>0.4351504520895255</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.061892499242775</v>
+        <v>0.8023389630144387</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.559891899115126</v>
+        <v>1.148394100610543</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.2670031496542</v>
+        <v>1.181640184360907</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03098251724421055</v>
+        <v>0.03066784083187378</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2350576344568234</v>
+        <v>0.2350475508028706</v>
       </c>
     </row>
   </sheetData>
@@ -1102,13 +1102,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
   <cols>
     <col width="10.83203125" customWidth="1" style="13" min="1" max="1"/>
     <col width="20.83203125" customWidth="1" style="13" min="2" max="7"/>
@@ -1154,202 +1154,122 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.08329199999999976</v>
+        <v>0.2512000000000004</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>-0.4234740320650648</v>
+        <v>-0.009330046165238326</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>0.3442310521895199</v>
+        <v>1.62193007768419</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>-3.634601385133114</v>
+        <v>1.948036040870847</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.9169392924530068</v>
+        <v>-0.1664841751918162</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.6469205915346121</v>
+        <v>0.06429252623292769</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.977558279738104</v>
+        <v>-0.9023440876204348</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>4.442704029170223</v>
+        <v>-0.5608579037706264</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.5094339622641509</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>1.137176786148547</v>
+        <v>0.1747644777278633</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.009359049985029531</v>
+        <v>0.2869344118565</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>2.36264830284524</v>
+        <v>1.625419878821407</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>2.844618825071559</v>
+        <v>1.984691255671259</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>-0.1664871592889883</v>
+        <v>-0.06259774265481263</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.06429041238358547</v>
+        <v>0.2490921313816308</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>-0.9023084633852326</v>
+        <v>-0.2950526823705921</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>-0.560823804124511</v>
+        <v>0.2238325247865744</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.52</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.1747801545743805</v>
+        <v>0.3896804775770079</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2869521932936513</v>
+        <v>-0.05589513661654568</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>1.625446166568487</v>
+        <v>1.719424094858339</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>1.984740770551551</v>
+        <v>0.8778180905865198</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>-0.06260022757945384</v>
+        <v>0.4302787346851319</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>0.2490908585720296</v>
+        <v>-0.02076836365185208</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>-0.2950381227918432</v>
+        <v>2.811586041150633</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.2238437908739389</v>
+        <v>1.868657250801849</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.5490196078431373</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="13" t="n">
-        <v>0.3897080068174044</v>
-      </c>
-      <c r="C8" s="13" t="n">
-        <v>-0.05587383568223906</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>1.7194237216174</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>0.8778385796166454</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>0.3653846153846154</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="13" t="n">
-        <v>0.5874118413259568</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>-0.063391399638714</v>
-      </c>
-      <c r="D9" s="13" t="n">
-        <v>1.965875232747758</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>0.9388705011899794</v>
-      </c>
-      <c r="F9" s="13" t="n">
-        <v>0.3461538461538461</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>0.1136128516730412</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>-0.03419288170586872</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>0.6189381126644455</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0.3022492816735276</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="13" t="n">
-        <v>-0.02141265230230083</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>0.3521287472546212</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>-1.358022736016941</v>
-      </c>
-      <c r="E11" s="13" t="n">
-        <v>-1.049647811498657</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>0.625</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
   </sheetData>
@@ -1363,13 +1283,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="10.83203125" customWidth="1" style="15" min="1" max="1"/>
     <col width="15.83203125" customWidth="1" style="15" min="2" max="13"/>
@@ -1441,411 +1361,247 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>0.06529399999999996</v>
+        <v/>
       </c>
       <c r="C2" s="15" t="n">
-        <v>0.01359061442193421</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="n">
-        <v>0.006224462201280145</v>
+        <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.01672353158280826</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.2064729243217169</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.0444428270653221</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.008741161274111953</v>
+        <v>0</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.01998369980235803</v>
+        <v>0.04033700000000007</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.04361881689469582</v>
+        <v>-0.03817512978967408</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.06511123457823798</v>
+        <v>0.1899308630032124</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.02792628431355793</v>
+        <v>0.07839529139451606</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.1420447885548106</v>
+        <v>-0.02555579612060299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.146820986400712</v>
+        <v>-0.08223945012787737</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.04098307873355345</v>
+        <v>0.0005042227567315649</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.0006748210339366789</v>
+        <v>0.05440598286506559</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.00302961422744441</v>
+        <v>-0.06071635241256512</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.01926841566994986</v>
+        <v>0.00559219430568203</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.06931184403833202</v>
+        <v>0.01278973325444266</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.04625345868318864</v>
+        <v>-0.04388811847781326</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.01161881447698931</v>
+        <v>-0.03369934673557362</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.08171717491061092</v>
+        <v>-0.02561001124565154</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.03786071829293114</v>
+        <v>-0.01378524314691942</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.1495376057446243</v>
+        <v>0.07238471437624594</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.3384093424176005</v>
+        <v>-0.05475624213728159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.03606607900876646</v>
+        <v>0.01758853959411066</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.1472391105604713</v>
+        <v>0.01998797630691707</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.2111476894671751</v>
+        <v>-0.01751582059217482</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.1253390466712305</v>
+        <v>-0.002655408137359427</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.2113537748523373</v>
+        <v>0.02892239404298746</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.06446301307068691</v>
+        <v>0.04698889350094304</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0</v>
+        <v>0.01951910689780689</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.04033603116052431</v>
+        <v>0.001394937193489376</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.03818108107961626</v>
+        <v>0.001459000541767619</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.1899418832181485</v>
+        <v>0.04088237660645766</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.07840022010801317</v>
+        <v>0.0144529467152954</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02556221930203062</v>
+        <v>-0.006836955552493196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.08224021602173204</v>
+        <v>0.08702565224346936</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.0005045317012859485</v>
+        <v>-0.06084431616127672</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.0544069785104262</v>
+        <v>0.064357642844864</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.06071719897459948</v>
+        <v>-0.04243637510892084</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.005592223118057182</v>
+        <v>-0.05145648509076717</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01279107815338199</v>
+        <v>0.02117019103455076</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.04389184139430147</v>
+        <v>-0.02971044364410291</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03369923384808771</v>
+        <v>-0.06264179101986034</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.025609656226803</v>
+        <v>0.05777917876577154</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.01378820734117148</v>
+        <v>-0.03945436668282987</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.07239577838580757</v>
+        <v>0.004796518251834803</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.05476413756448817</v>
+        <v>0.001705176322209345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01758871536741813</v>
+        <v>0.0158246144415497</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.01998828984441503</v>
+        <v>0.155065238745866</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.01751897059378815</v>
+        <v>0.1027892987459402</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.002653336977507248</v>
+        <v>0.01351160386957173</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.02892413047395892</v>
+        <v>-0.04757940025296548</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04699175234775366</v>
+        <v>0.03536209091276676</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.01952035900781346</v>
+        <v>0.002652841368166348</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.001396638918622184</v>
+        <v>0.001799696469102718</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.001461875947657898</v>
+        <v>0.01206043624565978</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.04088484158457173</v>
+        <v>0.01160144441824551</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.0144538816522366</v>
+        <v>0.0003502849420686793</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.006836471572559621</v>
+        <v>0.04459496695711573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.08703729058490728</v>
+        <v>0.07208091739463329</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.06084810761104631</v>
+        <v>0.04273134627556741</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.06436244894941545</v>
+        <v>-0.01994054324906913</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.04243852863898645</v>
+        <v>0.04258491333238346</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.05146163626387434</v>
+        <v>0.0083278479901705</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.02117400243320922</v>
+        <v>0.1684578902874627</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02971025395902716</v>
+        <v>0.06277663841406755</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.06264924667198157</v>
+        <v/>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.05778175982198275</v>
+        <v/>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.03945882945419443</v>
+        <v/>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.004796480061116437</v>
+        <v/>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.001705290408374971</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="15" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="15" t="n">
-        <v>0.01582471522754214</v>
-      </c>
-      <c r="C8" s="15" t="n">
-        <v>0.1550736608286392</v>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>0.1027980857239992</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>0.01351371604046547</v>
-      </c>
-      <c r="F8" s="15" t="n">
-        <v>-0.04758210198988444</v>
-      </c>
-      <c r="G8" s="15" t="n">
-        <v>0.03536018662549956</v>
-      </c>
-      <c r="H8" s="15" t="n">
-        <v>0.002652715250995863</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <v>0.001800967104000017</v>
-      </c>
-      <c r="J8" s="15" t="n">
-        <v>0.01206045344810525</v>
-      </c>
-      <c r="K8" s="15" t="n">
-        <v>0.01160322248456946</v>
-      </c>
-      <c r="L8" s="15" t="n">
-        <v>0.000349968141085677</v>
-      </c>
-      <c r="M8" s="15" t="n">
-        <v>0.044599607493784</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="15" t="n">
-        <v>0.0720879044011733</v>
-      </c>
-      <c r="C9" s="15" t="n">
-        <v>0.04273325569731723</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>-0.01994197554604749</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>0.04258731634836432</v>
-      </c>
-      <c r="F9" s="15" t="n">
-        <v>0.00832764775342798</v>
-      </c>
-      <c r="G9" s="15" t="n">
-        <v>0.168463051322413</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <v>0.1465012059376023</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <v>0.0005294696511428665</v>
-      </c>
-      <c r="J9" s="15" t="n">
-        <v>-0.04197645227037194</v>
-      </c>
-      <c r="K9" s="15" t="n">
-        <v>-0.05834096508313236</v>
-      </c>
-      <c r="L9" s="15" t="n">
-        <v>0.0622684043695223</v>
-      </c>
-      <c r="M9" s="15" t="n">
-        <v>0.07299224405618276</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0.04462673315439569</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>-0.02027222868393985</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.07654821582224169</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0.07041221098970074</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.0508021082597534</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>-0.07041760309882394</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v>-0.03484344452944488</v>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v>-0.01988951326791544</v>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v>0.01082319530958165</v>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v>0.04325248977034724</v>
-      </c>
-      <c r="M10" s="15" t="n">
-        <v>-0.03097075685003092</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="15" t="n">
-        <v>-0.02216357199156482</v>
-      </c>
-      <c r="C11" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15" t="n">
-        <v>0.0007679399823481425</v>
-      </c>
-      <c r="F11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="G11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="H11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="I11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M11" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1860,13 +1616,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="10.83203125" customWidth="1" style="15" min="1" max="1"/>
     <col width="15.83203125" customWidth="1" style="15" min="2" max="13"/>
@@ -1938,411 +1694,247 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>-0.02076834520177806</v>
+        <v/>
       </c>
       <c r="C2" s="15" t="n">
-        <v>-0.08801378443705599</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="n">
-        <v>-4.119671651592327e-07</v>
+        <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.01223291822495165</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-8.636037361009485e-06</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.007084535119706414</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>-0.1030447218219539</v>
+        <v>-0.09278692544367906</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.06306725361821819</v>
+        <v>0.2728020439865135</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.09799272308456741</v>
+        <v>-0.1047134144630996</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.03384874103980584</v>
+        <v>-1.780485983415847e-05</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>-0.0745350590732019</v>
+        <v>-8.509944281587245e-06</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.1052073962930065</v>
+        <v>-0.04168523842932004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-1.00594305253443e-05</v>
+        <v>0.2086138616726871</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.0001601107585064154</v>
+        <v>0.04604509652611055</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.0734881082283998</v>
+        <v>-0.1271305032280056</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.03504317119716482</v>
+        <v>-0.0174463654719037</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.04923533128875679</v>
+        <v>-0.01317521273602784</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.003384345913519216</v>
+        <v>-0.01828043063670448</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.09020759649425969</v>
+        <v>0.00355309616905175</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.06850401685055807</v>
+        <v>-0.06639346062759233</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-9.380522417723469e-07</v>
+        <v>-0.0074630773856591</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.02089506427304666</v>
+        <v>-0.01949170340881823</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.1036974396158274</v>
+        <v>0.05997107878441699</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.4160593415445564</v>
+        <v>0.04831971158421622</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.1611013640127508</v>
+        <v>0.05518928175592341</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-9.132128961586439e-06</v>
+        <v>-0.002112442793666069</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-1.128457941945715e-05</v>
+        <v>-0.007354137397570848</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.08614618579812572</v>
+        <v>0.02635598685073437</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.02350854347980891</v>
+        <v>0.07768190640439632</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.1348038234633739</v>
+        <v>0.01391148048412827</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.08807385286485703</v>
+        <v>0.06244797571969696</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.2728008010003242</v>
+        <v>-0.06104796467227458</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.1047188397105494</v>
+        <v>-0.008187716168528314</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-7.583059317806118e-06</v>
+        <v>0.03698180785047267</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-3.049159262302759e-06</v>
+        <v>0.0692744801297569</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.04169125615217506</v>
+        <v>0.0007383508338496547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.2086129358684212</v>
+        <v>0.09416994594816996</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.04604540782714039</v>
+        <v>-0.0773046587349574</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.1271296488673889</v>
+        <v>-0.01862673846691443</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.01744710633619839</v>
+        <v>0.004726907534071234</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.01317518336382972</v>
+        <v>-0.0191932936288477</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.01827841834001387</v>
+        <v>0.09857893618758462</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.003549613912324556</v>
+        <v>-0.005126739169573624</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.06639335519934852</v>
+        <v>0.01321479965236216</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.007462705457285335</v>
+        <v>0.07451349316191624</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.01949463191906387</v>
+        <v>0.05185122223538796</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.05998206426389929</v>
+        <v>-0.03835218841266819</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.04831109765103325</v>
+        <v>0.06292566634077112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.0551894615858477</v>
+        <v>0.03166447180668075</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.002112130123497091</v>
+        <v>-0.07832092762821308</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.007357101464677052</v>
+        <v>-1.029579154832039e-05</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02635812624946698</v>
+        <v>0.05508499015560431</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07768372276278823</v>
+        <v>0.03323507827093053</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.01391424900620941</v>
+        <v>0.01317279877248834</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.06244929327271342</v>
+        <v>-0.03614376481177906</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.06104624860353702</v>
+        <v>-0.02408883155050578</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.008184809778603475</v>
+        <v>0.001679049253460629</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.03698425046973197</v>
+        <v>-0.01687582186930825</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.06927554701171612</v>
+        <v>0.003963722255670321</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.0007388184353647187</v>
+        <v>-0.03337313709711032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.09418172179101059</v>
+        <v>-7.522609059118501e-06</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.07730831350424783</v>
+        <v>-0.03056433478841825</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01862165925433446</v>
+        <v>0.07537144821565711</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.004724690752251126</v>
+        <v>-0.06067708384076165</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01919852119067922</v>
+        <v>-4.232859085462337e-08</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.09858309039397106</v>
+        <v>-6.551311076186117e-06</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.005126533818903711</v>
+        <v>-1.947754775799559e-06</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.01320688980605955</v>
+        <v/>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.07451621411265341</v>
+        <v/>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.05184654892289586</v>
+        <v/>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.0383520639647752</v>
+        <v/>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.06292581565491528</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="15" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="15" t="n">
-        <v>0.03166457099127018</v>
-      </c>
-      <c r="C8" s="15" t="n">
-        <v>-0.07831384059300972</v>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>-1.403862182280946e-06</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>0.05508747039938755</v>
-      </c>
-      <c r="F8" s="15" t="n">
-        <v>0.03323241919413911</v>
-      </c>
-      <c r="G8" s="15" t="n">
-        <v>0.01317095307977012</v>
-      </c>
-      <c r="H8" s="15" t="n">
-        <v>-0.03614383383292641</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <v>-0.02408742625228577</v>
-      </c>
-      <c r="J8" s="15" t="n">
-        <v>0.001679357256170855</v>
-      </c>
-      <c r="K8" s="15" t="n">
-        <v>-0.01687410277785784</v>
-      </c>
-      <c r="L8" s="15" t="n">
-        <v>0.003963566529004758</v>
-      </c>
-      <c r="M8" s="15" t="n">
-        <v>-0.03336863301391624</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="15" t="n">
-        <v>-6.211546319523364e-07</v>
-      </c>
-      <c r="C9" s="15" t="n">
-        <v>-0.03056136178218349</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>0.07537018824882291</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>-0.06067485434691888</v>
-      </c>
-      <c r="F9" s="15" t="n">
-        <v>-1.41813645271327e-07</v>
-      </c>
-      <c r="G9" s="15" t="n">
-        <v>-2.020645295308654e-06</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <v>-1.713788736368294e-06</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <v>0.02236357081983131</v>
-      </c>
-      <c r="J9" s="15" t="n">
-        <v>0.01025716644410135</v>
-      </c>
-      <c r="K9" s="15" t="n">
-        <v>-0.09001524929836968</v>
-      </c>
-      <c r="L9" s="15" t="n">
-        <v>0.06970878324251761</v>
-      </c>
-      <c r="M9" s="15" t="n">
-        <v>-0.04867513994361694</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>-0.009905232857369661</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.05091823808208829</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.04291606568309714</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>-0.0405603837467241</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>-5.972553397404212e-07</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>-3.934922789827766e-07</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>-0.06334825886301543</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v>0.02920969653338212</v>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v>-0.03343558713009231</v>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v>-0.02245747694762601</v>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v>-8.865390532797335e-07</v>
-      </c>
-      <c r="M10" s="15" t="n">
-        <v>0.01842732937562541</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="15" t="n">
-        <v>0.1111204194336357</v>
-      </c>
-      <c r="C11" s="15" t="n">
-        <v>0.004280811429914433</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>0.07009750317718355</v>
-      </c>
-      <c r="E11" s="15" t="n">
-        <v>0.1323440487833731</v>
-      </c>
-      <c r="F11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="G11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="H11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="I11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M11" s="15" t="n">
         <v/>
       </c>
     </row>

--- a/backtest/bt_t28/backtest_report/summary.xlsx
+++ b/backtest/bt_t28/backtest_report/summary.xlsx
@@ -587,7 +587,7 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col width="20.83203125" customWidth="1" min="1" max="1"/>
     <col width="33.1640625" customWidth="1" min="2" max="2"/>
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2013-01-04</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C3" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>22827215.51305347</v>
+        <v>102766890.3660632</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>776.2224534675479</v>
+        <v>169.8075631707907</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>1.282721551305347</v>
+        <v>9.276689036606315</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1865462063494741</v>
+        <v>0.2929796492681018</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>2.282721551305347</v>
+        <v>10.27668903660632</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>134.5325825712408</v>
+        <v>236.0451051637262</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7097436179809689</v>
+        <v>0.7298877192745713</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.203971044059806</v>
+        <v>0.2308193892738648</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.7910971475348714</v>
+        <v>1.07758408936767</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1443452251380312</v>
+        <v>0.1626892293608622</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.117881876460545</v>
+        <v>1.528849219928232</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2627333989365545</v>
+        <v>0.2627452117573835</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02070452209467021</v>
+        <v>0.02319386034187436</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.5669187478757503</v>
+        <v>0.8891013414745776</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.09754115946305419</v>
+        <v>0.07267130468911609</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1601882427459551</v>
+        <v>0.205445508329017</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3965147850673252</v>
+        <v>0.4762219991956081</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.104532745189871</v>
+        <v>1.275884885215453</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4978310831580897</v>
+        <v>0.4111813423640294</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.2561040773391506</v>
+        <v>0.451693549785752</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2486460943249201</v>
+        <v>0.2407885431176486</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1567938103595856</v>
+        <v>0.1963405504203518</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4351504520895255</v>
+        <v>0.4996148861868781</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.8023389630144387</v>
+        <v>1.076451340226042</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.148394100610543</v>
+        <v>1.58215347638922</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.181640184360907</v>
+        <v>1.278527619587026</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03066784083187378</v>
+        <v>0.03102363895637527</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2350475508028706</v>
+        <v>0.2350576344568234</v>
       </c>
     </row>
   </sheetData>
@@ -1102,13 +1102,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="10.83203125" customWidth="1" style="13" min="1" max="1"/>
     <col width="20.83203125" customWidth="1" style="13" min="2" max="7"/>
@@ -1154,122 +1154,202 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.2512000000000004</v>
+        <v>0.08329199999999976</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>-0.009330046165238326</v>
+        <v>-0.4234740320650648</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>1.62193007768419</v>
+        <v>0.3442310521895199</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>1.948036040870847</v>
+        <v>-3.634601385133114</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>-0.1664841751918162</v>
+        <v>0.9169392924530068</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.06429252623292769</v>
+        <v>0.6469205915346121</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>-0.9023440876204348</v>
+        <v>2.977558279738104</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>-0.5608579037706264</v>
+        <v>4.442704029170223</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.52</v>
+        <v>0.5094339622641509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.1747644777278633</v>
+        <v>1.137176786148547</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.2869344118565</v>
+        <v>0.009359049985029531</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>1.625419878821407</v>
+        <v>2.36264830284524</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>1.984691255671259</v>
+        <v>2.844618825071559</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.2884615384615384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>-0.06259774265481263</v>
+        <v>-0.1664871592889883</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.2490921313816308</v>
+        <v>0.06429041238358547</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>-0.2950526823705921</v>
+        <v>-0.9023084633852326</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.2238325247865744</v>
+        <v>-0.560823804124511</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.3896804775770079</v>
+        <v>0.1747801545743805</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>-0.05589513661654568</v>
+        <v>0.2869521932936513</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>1.719424094858339</v>
+        <v>1.625446166568487</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.8778180905865198</v>
+        <v>1.984740770551551</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5490196078431373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>-0.06260022757945384</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>0.2490908585720296</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>-0.2950381227918432</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>0.2238437908739389</v>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>0.5490196078431373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>0.3897080068174044</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>-0.05587383568223906</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>1.7194237216174</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>0.8778385796166454</v>
+      </c>
+      <c r="F8" s="13" t="n">
+        <v>0.3653846153846154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n">
         <v>2020</v>
       </c>
-      <c r="B7" s="13" t="n">
-        <v>0.4302787346851319</v>
-      </c>
-      <c r="C7" s="13" t="n">
-        <v>-0.02076836365185208</v>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>2.811586041150633</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>1.868657250801849</v>
-      </c>
-      <c r="F7" s="13" t="n">
-        <v>0.2592592592592592</v>
+      <c r="B9" s="13" t="n">
+        <v>0.5874118413259568</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>-0.063391399638714</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>1.965875232747758</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>0.9388705011899794</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="13" t="n">
+        <v>0.1136128516730412</v>
+      </c>
+      <c r="C10" s="13" t="n">
+        <v>-0.03419288170586872</v>
+      </c>
+      <c r="D10" s="13" t="n">
+        <v>0.6189381126644455</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>0.3022492816735276</v>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>0.02687533074440052</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>0.3490339655883828</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>1.100503664541461</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>1.51193258648709</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>0.5714285714285714</v>
       </c>
     </row>
   </sheetData>
@@ -1283,13 +1363,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col width="10.83203125" customWidth="1" style="15" min="1" max="1"/>
     <col width="15.83203125" customWidth="1" style="15" min="2" max="13"/>
@@ -1361,247 +1441,411 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v/>
+        <v>0.06529399999999996</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v/>
+        <v>0.01359061442193421</v>
       </c>
       <c r="D2" s="15" t="n">
-        <v/>
+        <v>0.006224462201280145</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v/>
+        <v>0.01672353158280826</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v/>
+        <v>0.2064729243217169</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v/>
+        <v>-0.0444428270653221</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0</v>
+        <v>0.008741161274111953</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.04033700000000007</v>
+        <v>-0.01998369980235803</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.03817512978967408</v>
+        <v>0.04361881689469582</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.1899308630032124</v>
+        <v>-0.06511123457823798</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.07839529139451606</v>
+        <v>0.02792628431355793</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.02555579612060299</v>
+        <v>-0.1420447885548106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.08223945012787737</v>
+        <v>0.146820986400712</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.0005042227567315649</v>
+        <v>-0.04098307873355345</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.05440598286506559</v>
+        <v>0.0006748210339366789</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.06071635241256512</v>
+        <v>0.00302961422744441</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.00559219430568203</v>
+        <v>-0.01926841566994986</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.01278973325444266</v>
+        <v>0.06931184403833202</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>-0.04388811847781326</v>
+        <v>0.04625345868318864</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.03369934673557362</v>
+        <v>-0.01161881447698931</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.02561001124565154</v>
+        <v>0.08171717491061092</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.01378524314691942</v>
+        <v>-0.03786071829293114</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07238471437624594</v>
+        <v>0.1495376057446243</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.05475624213728159</v>
+        <v>0.3384093424176005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.01758853959411066</v>
+        <v>-0.03606607900876646</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.01998797630691707</v>
+        <v>0.1472391105604713</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.01751582059217482</v>
+        <v>0.2111476894671751</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.002655408137359427</v>
+        <v>0.1253390466712305</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.02892239404298746</v>
+        <v>0.2113537748523373</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.04698889350094304</v>
+        <v>-0.06446301307068691</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.01951910689780689</v>
+        <v>0</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.001394937193489376</v>
+        <v>0.04033603116052431</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.001459000541767619</v>
+        <v>-0.03818108107961626</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.04088237660645766</v>
+        <v>0.1899418832181485</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.0144529467152954</v>
+        <v>0.07840022010801317</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.006836955552493196</v>
+        <v>-0.02556221930203062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.08702565224346936</v>
+        <v>-0.08224021602173204</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.06084431616127672</v>
+        <v>0.0005045317012859485</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.064357642844864</v>
+        <v>0.0544069785104262</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.04243637510892084</v>
+        <v>-0.06071719897459948</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.05145648509076717</v>
+        <v>0.005592223118057182</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.02117019103455076</v>
+        <v>0.01279107815338199</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.02971044364410291</v>
+        <v>-0.04389184139430147</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.06264179101986034</v>
+        <v>-0.03369923384808771</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.05777917876577154</v>
+        <v>-0.025609656226803</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.03945436668282987</v>
+        <v>-0.01378820734117148</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.004796518251834803</v>
+        <v>0.07239577838580757</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.001705176322209345</v>
+        <v>-0.05476413756448817</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.0158246144415497</v>
+        <v>0.01758871536741813</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.155065238745866</v>
+        <v>0.01998828984441503</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.1027892987459402</v>
+        <v>-0.01751897059378815</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.01351160386957173</v>
+        <v>-0.002653336977507248</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.04757940025296548</v>
+        <v>0.02892413047395892</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.03536209091276676</v>
+        <v>0.04699175234775366</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.002652841368166348</v>
+        <v>0.01952035900781346</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.001799696469102718</v>
+        <v>0.001396638918622184</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01206043624565978</v>
+        <v>0.001461875947657898</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.01160144441824551</v>
+        <v>0.04088484158457173</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.0003502849420686793</v>
+        <v>0.0144538816522366</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.04459496695711573</v>
+        <v>-0.006836471572559621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>0.08703729058490728</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>-0.06084810761104631</v>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>0.06436244894941545</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>-0.04243852863898645</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>-0.05146163626387434</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0.02117400243320922</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>-0.02971025395902716</v>
+      </c>
+      <c r="I7" s="15" t="n">
+        <v>-0.06264924667198157</v>
+      </c>
+      <c r="J7" s="15" t="n">
+        <v>0.05778175982198275</v>
+      </c>
+      <c r="K7" s="15" t="n">
+        <v>-0.03945882945419443</v>
+      </c>
+      <c r="L7" s="15" t="n">
+        <v>0.004796480061116437</v>
+      </c>
+      <c r="M7" s="15" t="n">
+        <v>0.001705290408374971</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>0.01582471522754214</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>0.1550736608286392</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>0.1027980857239992</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>0.01351371604046547</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>-0.04758210198988444</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0.03536018662549956</v>
+      </c>
+      <c r="H8" s="15" t="n">
+        <v>0.002652715250995863</v>
+      </c>
+      <c r="I8" s="15" t="n">
+        <v>0.001800967104000017</v>
+      </c>
+      <c r="J8" s="15" t="n">
+        <v>0.01206045344810525</v>
+      </c>
+      <c r="K8" s="15" t="n">
+        <v>0.01160322248456946</v>
+      </c>
+      <c r="L8" s="15" t="n">
+        <v>0.000349968141085677</v>
+      </c>
+      <c r="M8" s="15" t="n">
+        <v>0.044599607493784</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="n">
         <v>2020</v>
       </c>
-      <c r="B7" s="15" t="n">
-        <v>0.07208091739463329</v>
-      </c>
-      <c r="C7" s="15" t="n">
-        <v>0.04273134627556741</v>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>-0.01994054324906913</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>0.04258491333238346</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <v>0.0083278479901705</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>0.1684578902874627</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>0.06277663841406755</v>
-      </c>
-      <c r="I7" s="15" t="n">
+      <c r="B9" s="15" t="n">
+        <v>0.0720879044011733</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>0.04273325569731723</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>-0.01994197554604749</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>0.04258731634836432</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>0.00832764775342798</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>0.168463051322413</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>0.1465012059376023</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>0.0005294696511428665</v>
+      </c>
+      <c r="J9" s="15" t="n">
+        <v>-0.04197645227037194</v>
+      </c>
+      <c r="K9" s="15" t="n">
+        <v>-0.05834096508313236</v>
+      </c>
+      <c r="L9" s="15" t="n">
+        <v>0.0622684043695223</v>
+      </c>
+      <c r="M9" s="15" t="n">
+        <v>0.07299224405618276</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>0.04462673315439569</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>-0.02027222868393985</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>0.07654821582224169</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>0.07041221098970074</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>0.0508021082597534</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <v>-0.07041760309882394</v>
+      </c>
+      <c r="I10" s="15" t="n">
+        <v>-0.03484344452944488</v>
+      </c>
+      <c r="J10" s="15" t="n">
+        <v>-0.01988951326791544</v>
+      </c>
+      <c r="K10" s="15" t="n">
+        <v>0.01082319530958165</v>
+      </c>
+      <c r="L10" s="15" t="n">
+        <v>0.04325248977034724</v>
+      </c>
+      <c r="M10" s="15" t="n">
+        <v>-0.03097075685003092</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>-0.02216357199156482</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>0.0007679399823481425</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>0.03903175555545579</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>0.009925419315503836</v>
+      </c>
+      <c r="H11" s="15" t="n">
         <v/>
       </c>
-      <c r="J7" s="15" t="n">
+      <c r="I11" s="15" t="n">
         <v/>
       </c>
-      <c r="K7" s="15" t="n">
+      <c r="J11" s="15" t="n">
         <v/>
       </c>
-      <c r="L7" s="15" t="n">
+      <c r="K11" s="15" t="n">
         <v/>
       </c>
-      <c r="M7" s="15" t="n">
+      <c r="L11" s="15" t="n">
+        <v/>
+      </c>
+      <c r="M11" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1616,13 +1860,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col width="10.83203125" customWidth="1" style="15" min="1" max="1"/>
     <col width="15.83203125" customWidth="1" style="15" min="2" max="13"/>
@@ -1694,247 +1938,411 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v/>
+        <v>-0.02076834520177806</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v/>
+        <v>-0.08801378443705599</v>
       </c>
       <c r="D2" s="15" t="n">
-        <v/>
+        <v>-4.119671651592327e-07</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v/>
+        <v>-0.01223291822495165</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v/>
+        <v>-8.636037361009485e-06</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v/>
+        <v>0.007084535119706414</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>-0.09278692544367906</v>
+        <v>-0.1030447218219539</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.2728020439865135</v>
+        <v>-0.06306725361821819</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.1047134144630996</v>
+        <v>-0.09799272308456741</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-1.780485983415847e-05</v>
+        <v>0.03384874103980584</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>-8.509944281587245e-06</v>
+        <v>-0.0745350590732019</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.04168523842932004</v>
+        <v>-0.1052073962930065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.2086138616726871</v>
+        <v>-1.00594305253443e-05</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.04604509652611055</v>
+        <v>-0.0001601107585064154</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.1271305032280056</v>
+        <v>0.0734881082283998</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.0174463654719037</v>
+        <v>0.03504317119716482</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.01317521273602784</v>
+        <v>-0.04923533128875679</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.01828043063670448</v>
+        <v>0.003384345913519216</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.00355309616905175</v>
+        <v>0.09020759649425969</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.06639346062759233</v>
+        <v>-0.06850401685055807</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.0074630773856591</v>
+        <v>-9.380522417723469e-07</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.01949170340881823</v>
+        <v>-0.02089506427304666</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.05997107878441699</v>
+        <v>0.1036974396158274</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.04831971158421622</v>
+        <v>0.4160593415445564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.05518928175592341</v>
+        <v>-0.1611013640127508</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.002112442793666069</v>
+        <v>-9.132128961586439e-06</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.007354137397570848</v>
+        <v>-1.128457941945715e-05</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.02635598685073437</v>
+        <v>-0.08614618579812572</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.07768190640439632</v>
+        <v>-0.02350854347980891</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01391148048412827</v>
+        <v>0.1348038234633739</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.06244797571969696</v>
+        <v>0.08807385286485703</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.06104796467227458</v>
+        <v>0.2728008010003242</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.008187716168528314</v>
+        <v>-0.1047188397105494</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.03698180785047267</v>
+        <v>-7.583059317806118e-06</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.0692744801297569</v>
+        <v>-3.049159262302759e-06</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.0007383508338496547</v>
+        <v>-0.04169125615217506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.09416994594816996</v>
+        <v>0.2086129358684212</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.0773046587349574</v>
+        <v>0.04604540782714039</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.01862673846691443</v>
+        <v>-0.1271296488673889</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.004726907534071234</v>
+        <v>-0.01744710633619839</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.0191932936288477</v>
+        <v>-0.01317518336382972</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.09857893618758462</v>
+        <v>-0.01827841834001387</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.005126739169573624</v>
+        <v>0.003549613912324556</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.01321479965236216</v>
+        <v>-0.06639335519934852</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.07451349316191624</v>
+        <v>-0.007462705457285335</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05185122223538796</v>
+        <v>-0.01949463191906387</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.03835218841266819</v>
+        <v>0.05998206426389929</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.06292566634077112</v>
+        <v>0.04831109765103325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03166447180668075</v>
+        <v>0.0551894615858477</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07832092762821308</v>
+        <v>-0.002112130123497091</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-1.029579154832039e-05</v>
+        <v>-0.007357101464677052</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.05508499015560431</v>
+        <v>0.02635812624946698</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.03323507827093053</v>
+        <v>0.07768372276278823</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.01317279877248834</v>
+        <v>0.01391424900620941</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03614376481177906</v>
+        <v>0.06244929327271342</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.02408883155050578</v>
+        <v>-0.06104624860353702</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.001679049253460629</v>
+        <v>-0.008184809778603475</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.01687582186930825</v>
+        <v>0.03698425046973197</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.003963722255670321</v>
+        <v>0.06927554701171612</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.03337313709711032</v>
+        <v>0.0007388184353647187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>0.09418172179101059</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>-0.07730831350424783</v>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>-0.01862165925433446</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>0.004724690752251126</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>-0.01919852119067922</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0.09858309039397106</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>-0.005126533818903711</v>
+      </c>
+      <c r="I7" s="15" t="n">
+        <v>0.01320688980605955</v>
+      </c>
+      <c r="J7" s="15" t="n">
+        <v>0.07451621411265341</v>
+      </c>
+      <c r="K7" s="15" t="n">
+        <v>0.05184654892289586</v>
+      </c>
+      <c r="L7" s="15" t="n">
+        <v>-0.0383520639647752</v>
+      </c>
+      <c r="M7" s="15" t="n">
+        <v>0.06292581565491528</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>0.03166457099127018</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>-0.07831384059300972</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>-1.403862182280946e-06</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>0.05508747039938755</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>0.03323241919413911</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0.01317095307977012</v>
+      </c>
+      <c r="H8" s="15" t="n">
+        <v>-0.03614383383292641</v>
+      </c>
+      <c r="I8" s="15" t="n">
+        <v>-0.02408742625228577</v>
+      </c>
+      <c r="J8" s="15" t="n">
+        <v>0.001679357256170855</v>
+      </c>
+      <c r="K8" s="15" t="n">
+        <v>-0.01687410277785784</v>
+      </c>
+      <c r="L8" s="15" t="n">
+        <v>0.003963566529004758</v>
+      </c>
+      <c r="M8" s="15" t="n">
+        <v>-0.03336863301391624</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="n">
         <v>2020</v>
       </c>
-      <c r="B7" s="15" t="n">
-        <v>-7.522609059118501e-06</v>
-      </c>
-      <c r="C7" s="15" t="n">
-        <v>-0.03056433478841825</v>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>0.07537144821565711</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>-0.06067708384076165</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <v>-4.232859085462337e-08</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>-6.551311076186117e-06</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>-1.947754775799559e-06</v>
-      </c>
-      <c r="I7" s="15" t="n">
+      <c r="B9" s="15" t="n">
+        <v>-6.211546319523364e-07</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>-0.03056136178218349</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>0.07537018824882291</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>-0.06067485434691888</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>-1.41813645271327e-07</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>-2.020645295308654e-06</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>-1.713788736368294e-06</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>0.02236357081983131</v>
+      </c>
+      <c r="J9" s="15" t="n">
+        <v>0.01025716644410135</v>
+      </c>
+      <c r="K9" s="15" t="n">
+        <v>-0.09001524929836968</v>
+      </c>
+      <c r="L9" s="15" t="n">
+        <v>0.06970878324251761</v>
+      </c>
+      <c r="M9" s="15" t="n">
+        <v>-0.04867513994361694</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>-0.009905232857369661</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>0.05091823808208829</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>0.04291606568309714</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>-0.0405603837467241</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>-5.972553397404212e-07</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>-3.934922789827766e-07</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <v>-0.06334825886301543</v>
+      </c>
+      <c r="I10" s="15" t="n">
+        <v>0.02920969653338212</v>
+      </c>
+      <c r="J10" s="15" t="n">
+        <v>-0.03343558713009231</v>
+      </c>
+      <c r="K10" s="15" t="n">
+        <v>-0.02245747694762601</v>
+      </c>
+      <c r="L10" s="15" t="n">
+        <v>-8.865390532797335e-07</v>
+      </c>
+      <c r="M10" s="15" t="n">
+        <v>0.01842732937562541</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0.1111204194336357</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>0.004280811429914433</v>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>0.07009750317718355</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>0.1323440487833731</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>-0.002288770346876023</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>-5.150675286280659e-08</v>
+      </c>
+      <c r="H11" s="15" t="n">
         <v/>
       </c>
-      <c r="J7" s="15" t="n">
+      <c r="I11" s="15" t="n">
         <v/>
       </c>
-      <c r="K7" s="15" t="n">
+      <c r="J11" s="15" t="n">
         <v/>
       </c>
-      <c r="L7" s="15" t="n">
+      <c r="K11" s="15" t="n">
         <v/>
       </c>
-      <c r="M7" s="15" t="n">
+      <c r="L11" s="15" t="n">
+        <v/>
+      </c>
+      <c r="M11" s="15" t="n">
         <v/>
       </c>
     </row>

--- a/backtest/bt_t28/backtest_report/summary.xlsx
+++ b/backtest/bt_t28/backtest_report/summary.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="C3" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>102766890.3660632</v>
+        <v>117701396.1945632</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>9.276689036606315</v>
+        <v>10.77013961945632</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2929796492681018</v>
+        <v>0.3092276339957754</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>10.27668903660632</v>
+        <v>11.77013961945632</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>236.0451051637262</v>
+        <v>230.7950592008916</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2308193892738648</v>
+        <v>0.2313578210817266</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.07758408936767</v>
+        <v>1.12963676282735</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1626892293608622</v>
+        <v>0.1629405538007637</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.528849219928232</v>
+        <v>1.603961039564884</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02319386034187436</v>
+        <v>0.02319810213949473</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.8891013414745776</v>
+        <v>0.889100925310074</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.07267130468911609</v>
+        <v>0.07198621903639846</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.205445508329017</v>
+        <v>0.21374524210871</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4762219991956081</v>
+        <v>0.4801188648091282</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.275884885215453</v>
+        <v>1.324136614391845</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4111813423640294</v>
+        <v>0.4093042768129689</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2407885431176486</v>
+        <v>0.2396898984173734</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1963405504203518</v>
+        <v>0.2041700068286105</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4996148861868781</v>
+        <v>0.5040143913435574</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.076451340226042</v>
+        <v>1.128903767633266</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.58215347638922</v>
+        <v>1.660976295663127</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.278527619587026</v>
+        <v>1.325508205592934</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03102363895637527</v>
+        <v>0.03089645394999349</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1337,19 +1337,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.02687533074440052</v>
+        <v>0.1761051059741025</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>0.3490339655883828</v>
+        <v>0.3490337105771135</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>1.100503664541461</v>
+        <v>2.648586614400055</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>1.51193258648709</v>
+        <v>3.911976238081939</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -1828,10 +1828,10 @@
         <v>0.03903175555545579</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>0.009925419315503836</v>
+        <v>0.1686075176614539</v>
       </c>
       <c r="H11" s="15" t="n">
-        <v/>
+        <v>-0.0101963698269395</v>
       </c>
       <c r="I11" s="15" t="n">
         <v/>
@@ -2325,10 +2325,10 @@
         <v>-0.002288770346876023</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>-5.150675286280659e-08</v>
+        <v>-3.016465831562343e-07</v>
       </c>
       <c r="H11" s="15" t="n">
-        <v/>
+        <v>6.110735406572587e-08</v>
       </c>
       <c r="I11" s="15" t="n">
         <v/>

--- a/backtest/bt_t28/backtest_report/summary.xlsx
+++ b/backtest/bt_t28/backtest_report/summary.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>00_bt_t28</t>
+          <t>strategy</t>
         </is>
       </c>
       <c r="C1" s="13" t="n"/>
@@ -649,7 +649,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>./backtest/bt_t28/00_bt_t28.py</t>
+          <t>strategy.py</t>
         </is>
       </c>
       <c r="C4" s="13" t="n"/>
